--- a/artfynd/A 13357-2023.xlsx
+++ b/artfynd/A 13357-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY67"/>
+  <dimension ref="A1:AY68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8508,6 +8508,122 @@
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>112168349</v>
+      </c>
+      <c r="B68" t="n">
+        <v>78531</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>229487</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Fjällgytterlav</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Pannaria hookeri</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(Borrer ex Sm.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>raudek, Jmt</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>446863.808674573</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7180422.075962974</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Frostviken</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Robin Isaksson</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Robin Isaksson, Karl Soler Kinnerbäck</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 13357-2023.xlsx
+++ b/artfynd/A 13357-2023.xlsx
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>446863.808674573</v>
+        <v>446864</v>
       </c>
       <c r="R68" t="n">
-        <v>7180422.075962974</v>
+        <v>7180422</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8586,19 +8586,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">

--- a/artfynd/A 13357-2023.xlsx
+++ b/artfynd/A 13357-2023.xlsx
@@ -8513,7 +8513,7 @@
         <v>112168349</v>
       </c>
       <c r="B68" t="n">
-        <v>78531</v>
+        <v>78652</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>

--- a/artfynd/A 13357-2023.xlsx
+++ b/artfynd/A 13357-2023.xlsx
@@ -8513,7 +8513,7 @@
         <v>112168349</v>
       </c>
       <c r="B68" t="n">
-        <v>78652</v>
+        <v>78666</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
